--- a/OpaProject/excel/testInsert.xlsx
+++ b/OpaProject/excel/testInsert.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\source\repos\OpaProject\OpaProject\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFB9726-A2B9-4317-9B65-776E2E547863}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A233903-27AF-4D14-981C-08D6566AEF11}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>email</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,6 +103,14 @@
   </si>
   <si>
     <t>sdh190304@sdh.hs.kr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdh190328@sdh.hs.kr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박철숭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -486,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -629,6 +637,23 @@
       </c>
       <c r="J6" s="1"/>
     </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -637,8 +662,9 @@
     <hyperlink ref="A4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="A5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="A6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A7" r:id="rId6" xr:uid="{084C8A28-7AEB-4249-A003-F23B0CDE2347}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId7"/>
 </worksheet>
 </file>
--- a/OpaProject/excel/testInsert.xlsx
+++ b/OpaProject/excel/testInsert.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\source\repos\OpaProject\OpaProject\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\308\OP_Admin\OpaProject\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A233903-27AF-4D14-981C-08D6566AEF11}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>email</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,37 +86,46 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>sdh190303@sdh.hs.kr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모르는놈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍철수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdh190304@sdh.hs.kr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdh190328@sdh.hs.kr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박철숭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdh190418@sdh.hs.kr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이태환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>01012345679</t>
-  </si>
-  <si>
-    <t>sdh190303@sdh.hs.kr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모르는놈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>홍철수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sdh190304@sdh.hs.kr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sdh190328@sdh.hs.kr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>박철숭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -493,11 +501,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -578,7 +586,7 @@
         <v>3</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -603,10 +611,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
         <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -621,10 +629,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -639,10 +647,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
         <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -653,18 +661,37 @@
       <c r="F7">
         <v>28</v>
       </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>19</v>
+      </c>
+      <c r="G8" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="A5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="A6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="A7" r:id="rId6" xr:uid="{084C8A28-7AEB-4249-A003-F23B0CDE2347}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A7" r:id="rId6"/>
+    <hyperlink ref="A8" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId8"/>
 </worksheet>
 </file>